--- a/biology/Zoologie/Capucin_damier/Capucin_damier.xlsx
+++ b/biology/Zoologie/Capucin_damier/Capucin_damier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonchura punctulata
 Le Capucin damier ou Damier commun (Lonchura punctulata) est une espèce de passereau appartenant à la famille des Estrildidae.
@@ -512,9 +524,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le capucin damier est un petit passereau qui mesure jusqu'à 12 cm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le capucin damier est un petit passereau qui mesure jusqu'à 12 cm de long.
 Il est marron avec un ventre aux plumes noires et blanches qui font penser à des écailles.
 Mâle et femelle ont la même apparence.</t>
         </is>
@@ -544,11 +558,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est, comme tous les estrildidés, un granivore très grégaire.
-Reproduction</t>
+C'est, comme tous les estrildidés, un granivore très grégaire.</t>
         </is>
       </c>
     </row>
@@ -576,10 +591,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu dans tout le sud asiatique, le sud-est asiatique et le sud de la Chine. 
-Il a été introduit en Australie, en Guadeloupe[2], à Maurice, à La Réunion, aux Seychelles et à Hawaï.
+Il a été introduit en Australie, en Guadeloupe, à Maurice, à La Réunion, aux Seychelles et à Hawaï.
 Il vit dans les habitats ouverts, les prairies, les zones arbustives.
 </t>
         </is>
@@ -609,13 +626,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom iniitla de Loxia punctulata[3].
-Synonyme
-Loxia punctulata Linné, 1758 protonyme
-Taxinomie
-Sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758, sous le nom iniitla de Loxia punctulata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Capucin_damier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capucin_damier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Loxia punctulata Linné, 1758 protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Capucin_damier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Capucin_damier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Cet oiseau est représenté par douze sous-espèces peu différentes entre elles si ce n'est par l'intensité des couleurs et quelques variations dans le dessin du plumage.
 </t>
         </is>
